--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Ccl3</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1031.534458333333</v>
+        <v>0.03315566666666667</v>
       </c>
       <c r="H2">
-        <v>3094.603375</v>
+        <v>0.099467</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1557603470145164</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1557603470145164</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.059282</v>
+        <v>0.001937666666666667</v>
       </c>
       <c r="N2">
-        <v>6.177846</v>
+        <v>0.005813</v>
       </c>
       <c r="O2">
-        <v>0.9506927780787987</v>
+        <v>0.0230007399171451</v>
       </c>
       <c r="P2">
-        <v>0.9506927780787987</v>
+        <v>0.02300073991714511</v>
       </c>
       <c r="Q2">
-        <v>2124.220342425583</v>
+        <v>6.424463011111111E-05</v>
       </c>
       <c r="R2">
-        <v>19117.98308183025</v>
+        <v>0.000578201671</v>
       </c>
       <c r="S2">
-        <v>0.9506927780787987</v>
+        <v>0.003582603231085159</v>
       </c>
       <c r="T2">
-        <v>0.9506927780787987</v>
+        <v>0.00358260323108516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1031.534458333333</v>
+        <v>0.03315566666666667</v>
       </c>
       <c r="H3">
-        <v>3094.603375</v>
+        <v>0.099467</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1557603470145164</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1557603470145164</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,60 +614,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08230599999999999</v>
+        <v>0.082306</v>
       </c>
       <c r="N3">
         <v>0.246918</v>
       </c>
       <c r="O3">
-        <v>0.03799757381094653</v>
+        <v>0.9769992600828549</v>
       </c>
       <c r="P3">
-        <v>0.03799757381094653</v>
+        <v>0.976999260082855</v>
       </c>
       <c r="Q3">
-        <v>84.90147512758332</v>
+        <v>0.002728910300666667</v>
       </c>
       <c r="R3">
-        <v>764.1132761482498</v>
+        <v>0.024560192706</v>
       </c>
       <c r="S3">
-        <v>0.03799757381094653</v>
+        <v>0.1521777437834312</v>
       </c>
       <c r="T3">
-        <v>0.03799757381094653</v>
+        <v>0.1521777437834312</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1031.534458333333</v>
+        <v>0.1797076666666667</v>
       </c>
       <c r="H4">
-        <v>3094.603375</v>
+        <v>0.539123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8442396529854836</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8442396529854836</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02449766666666666</v>
+        <v>0.001937666666666667</v>
       </c>
       <c r="N4">
-        <v>0.07349299999999999</v>
+        <v>0.005813</v>
       </c>
       <c r="O4">
-        <v>0.0113096481102548</v>
+        <v>0.0230007399171451</v>
       </c>
       <c r="P4">
-        <v>0.0113096481102548</v>
+        <v>0.02300073991714511</v>
       </c>
       <c r="Q4">
-        <v>25.27018731543055</v>
+        <v>0.0003482135554444444</v>
       </c>
       <c r="R4">
-        <v>227.431685838875</v>
+        <v>0.003133921999</v>
       </c>
       <c r="S4">
-        <v>0.0113096481102548</v>
+        <v>0.01941813668605994</v>
       </c>
       <c r="T4">
-        <v>0.0113096481102548</v>
+        <v>0.01941813668605995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1797076666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.539123</v>
+      </c>
+      <c r="I5">
+        <v>0.8442396529854836</v>
+      </c>
+      <c r="J5">
+        <v>0.8442396529854836</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.082306</v>
+      </c>
+      <c r="N5">
+        <v>0.246918</v>
+      </c>
+      <c r="O5">
+        <v>0.9769992600828549</v>
+      </c>
+      <c r="P5">
+        <v>0.976999260082855</v>
+      </c>
+      <c r="Q5">
+        <v>0.01479101921266667</v>
+      </c>
+      <c r="R5">
+        <v>0.133119172914</v>
+      </c>
+      <c r="S5">
+        <v>0.8248215162994237</v>
+      </c>
+      <c r="T5">
+        <v>0.8248215162994238</v>
       </c>
     </row>
   </sheetData>
